--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna1-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna1-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Efna1</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.60223533333333</v>
+        <v>30.194115</v>
       </c>
       <c r="H2">
-        <v>70.80670599999999</v>
+        <v>90.582345</v>
       </c>
       <c r="I2">
-        <v>0.8824726436021215</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J2">
-        <v>0.8824726436021214</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.106217</v>
+        <v>1.118034</v>
       </c>
       <c r="N2">
-        <v>3.318651</v>
+        <v>3.354102</v>
       </c>
       <c r="O2">
-        <v>0.01813136626967656</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="P2">
-        <v>0.01813136626967656</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="Q2">
-        <v>26.109193963734</v>
+        <v>33.75804716991</v>
       </c>
       <c r="R2">
-        <v>234.982745673606</v>
+        <v>303.82242452919</v>
       </c>
       <c r="S2">
-        <v>0.01600043472411981</v>
+        <v>0.01638742636094249</v>
       </c>
       <c r="T2">
-        <v>0.01600043472411981</v>
+        <v>0.01638742636094249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.60223533333333</v>
+        <v>30.194115</v>
       </c>
       <c r="H3">
-        <v>70.80670599999999</v>
+        <v>90.582345</v>
       </c>
       <c r="I3">
-        <v>0.8824726436021215</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J3">
-        <v>0.8824726436021214</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>177.734444</v>
       </c>
       <c r="O3">
-        <v>0.971047664518299</v>
+        <v>0.962887615892719</v>
       </c>
       <c r="P3">
-        <v>0.971047664518299</v>
+        <v>0.9628876158927191</v>
       </c>
       <c r="Q3">
-        <v>1398.310058042385</v>
+        <v>1788.84474719902</v>
       </c>
       <c r="R3">
-        <v>12584.79052238146</v>
+        <v>16099.60272479118</v>
       </c>
       <c r="S3">
-        <v>0.8569229995711294</v>
+        <v>0.8683725518344574</v>
       </c>
       <c r="T3">
-        <v>0.8569229995711293</v>
+        <v>0.8683725518344574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -658,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.60223533333333</v>
+        <v>30.194115</v>
       </c>
       <c r="H4">
-        <v>70.80670599999999</v>
+        <v>90.582345</v>
       </c>
       <c r="I4">
-        <v>0.8824726436021215</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J4">
-        <v>0.8824726436021214</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,43 +679,43 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6602006666666668</v>
+        <v>1.121724666666667</v>
       </c>
       <c r="N4">
-        <v>1.980602</v>
+        <v>3.365174</v>
       </c>
       <c r="O4">
-        <v>0.01082096921202439</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="P4">
-        <v>0.01082096921202439</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="Q4">
-        <v>15.58221150189022</v>
+        <v>33.86948358367</v>
       </c>
       <c r="R4">
-        <v>140.239903517012</v>
+        <v>304.82535225303</v>
       </c>
       <c r="S4">
-        <v>0.009549209306872327</v>
+        <v>0.01644152178936666</v>
       </c>
       <c r="T4">
-        <v>0.009549209306872324</v>
+        <v>0.01644152178936666</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.633202</v>
+        <v>30.194115</v>
       </c>
       <c r="H5">
-        <v>7.899606</v>
+        <v>90.582345</v>
       </c>
       <c r="I5">
-        <v>0.09845375648791208</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J5">
-        <v>0.09845375648791205</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.106217</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N5">
-        <v>3.318651</v>
+        <v>0.131107</v>
       </c>
       <c r="O5">
-        <v>0.01813136626967656</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="P5">
-        <v>0.01813136626967656</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="Q5">
-        <v>2.912892816834</v>
+        <v>1.319553278435</v>
       </c>
       <c r="R5">
-        <v>26.216035351506</v>
+        <v>11.875979505915</v>
       </c>
       <c r="S5">
-        <v>0.001785101119507879</v>
+        <v>0.0006405608141625054</v>
       </c>
       <c r="T5">
-        <v>0.001785101119507879</v>
+        <v>0.0006405608141625053</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,40 +791,40 @@
         <v>7.899606</v>
       </c>
       <c r="I6">
-        <v>0.09845375648791208</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J6">
-        <v>0.09845375648791205</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>59.24481466666666</v>
+        <v>1.118034</v>
       </c>
       <c r="N6">
-        <v>177.734444</v>
+        <v>3.354102</v>
       </c>
       <c r="O6">
-        <v>0.971047664518299</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="P6">
-        <v>0.971047664518299</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="Q6">
-        <v>156.003564469896</v>
+        <v>2.944009364868</v>
       </c>
       <c r="R6">
-        <v>1404.032080229064</v>
+        <v>26.496084283812</v>
       </c>
       <c r="S6">
-        <v>0.09560329030064035</v>
+        <v>0.001429132924362463</v>
       </c>
       <c r="T6">
-        <v>0.09560329030064033</v>
+        <v>0.001429132924362462</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,10 +853,10 @@
         <v>7.899606</v>
       </c>
       <c r="I7">
-        <v>0.09845375648791208</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J7">
-        <v>0.09845375648791205</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,43 +865,43 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6602006666666668</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N7">
-        <v>1.980602</v>
+        <v>177.734444</v>
       </c>
       <c r="O7">
-        <v>0.01082096921202439</v>
+        <v>0.962887615892719</v>
       </c>
       <c r="P7">
-        <v>0.01082096921202439</v>
+        <v>0.9628876158927191</v>
       </c>
       <c r="Q7">
-        <v>1.738441715868</v>
+        <v>156.003564469896</v>
       </c>
       <c r="R7">
-        <v>15.645975442812</v>
+        <v>1404.032080229064</v>
       </c>
       <c r="S7">
-        <v>0.001065365067763843</v>
+        <v>0.07573000037376811</v>
       </c>
       <c r="T7">
-        <v>0.001065365067763842</v>
+        <v>0.07573000037376809</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -906,61 +909,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5101343333333334</v>
+        <v>2.633202</v>
       </c>
       <c r="H8">
-        <v>1.530403</v>
+        <v>7.899606</v>
       </c>
       <c r="I8">
-        <v>0.01907359990996641</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J8">
-        <v>0.0190735999099664</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.106217</v>
+        <v>1.121724666666667</v>
       </c>
       <c r="N8">
-        <v>3.318651</v>
+        <v>3.365174</v>
       </c>
       <c r="O8">
-        <v>0.01813136626967656</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="P8">
-        <v>0.01813136626967656</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="Q8">
-        <v>0.564319271817</v>
+        <v>2.953727635716</v>
       </c>
       <c r="R8">
-        <v>5.078873446353</v>
+        <v>26.583548721444</v>
       </c>
       <c r="S8">
-        <v>0.0003458304260488708</v>
+        <v>0.001433850538716034</v>
       </c>
       <c r="T8">
-        <v>0.0003458304260488707</v>
+        <v>0.001433850538716034</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -968,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5101343333333334</v>
+        <v>2.633202</v>
       </c>
       <c r="H9">
-        <v>1.530403</v>
+        <v>7.899606</v>
       </c>
       <c r="I9">
-        <v>0.01907359990996641</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J9">
-        <v>0.0190735999099664</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>59.24481466666666</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N9">
-        <v>177.734444</v>
+        <v>0.131107</v>
       </c>
       <c r="O9">
-        <v>0.971047664518299</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="P9">
-        <v>0.971047664518299</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="Q9">
-        <v>30.22281403343689</v>
+        <v>0.115077071538</v>
       </c>
       <c r="R9">
-        <v>272.005326300932</v>
+        <v>1.035693643842</v>
       </c>
       <c r="S9">
-        <v>0.01852137464652932</v>
+        <v>5.586274070209834E-05</v>
       </c>
       <c r="T9">
-        <v>0.01852137464652931</v>
+        <v>5.586274070209832E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5479553333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.643866</v>
+      </c>
+      <c r="I10">
+        <v>0.01636640673320273</v>
+      </c>
+      <c r="J10">
+        <v>0.01636640673320272</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.118034</v>
+      </c>
+      <c r="N10">
+        <v>3.354102</v>
+      </c>
+      <c r="O10">
+        <v>0.01817106018145251</v>
+      </c>
+      <c r="P10">
+        <v>0.01817106018145251</v>
+      </c>
+      <c r="Q10">
+        <v>0.612632693148</v>
+      </c>
+      <c r="R10">
+        <v>5.513694238332</v>
+      </c>
+      <c r="S10">
+        <v>0.0002973949617031563</v>
+      </c>
+      <c r="T10">
+        <v>0.0002973949617031563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5479553333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.643866</v>
+      </c>
+      <c r="I11">
+        <v>0.01636640673320273</v>
+      </c>
+      <c r="J11">
+        <v>0.01636640673320272</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>59.24481466666666</v>
+      </c>
+      <c r="N11">
+        <v>177.734444</v>
+      </c>
+      <c r="O11">
+        <v>0.962887615892719</v>
+      </c>
+      <c r="P11">
+        <v>0.9628876158927191</v>
+      </c>
+      <c r="Q11">
+        <v>32.46351216894489</v>
+      </c>
+      <c r="R11">
+        <v>292.171609520504</v>
+      </c>
+      <c r="S11">
+        <v>0.01575901036006412</v>
+      </c>
+      <c r="T11">
+        <v>0.01575901036006412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5479553333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.643866</v>
+      </c>
+      <c r="I12">
+        <v>0.01636640673320273</v>
+      </c>
+      <c r="J12">
+        <v>0.01636640673320272</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.121724666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.365174</v>
+      </c>
+      <c r="O12">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="P12">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="Q12">
+        <v>0.6146550136315556</v>
+      </c>
+      <c r="R12">
+        <v>5.531895122684</v>
+      </c>
+      <c r="S12">
+        <v>0.00029837667216276</v>
+      </c>
+      <c r="T12">
+        <v>0.0002983766721627599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5479553333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.643866</v>
+      </c>
+      <c r="I13">
+        <v>0.01636640673320273</v>
+      </c>
+      <c r="J13">
+        <v>0.01636640673320272</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.131107</v>
+      </c>
+      <c r="O13">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="P13">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="Q13">
+        <v>0.02394692662911111</v>
+      </c>
+      <c r="R13">
+        <v>0.215522339662</v>
+      </c>
+      <c r="S13">
+        <v>1.162473927269228E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.162473927269228E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.315656</v>
+      </c>
+      <c r="I14">
+        <v>0.00314268589031943</v>
+      </c>
+      <c r="J14">
+        <v>0.003142685890319429</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.118034</v>
+      </c>
+      <c r="N14">
+        <v>3.354102</v>
+      </c>
+      <c r="O14">
+        <v>0.01817106018145251</v>
+      </c>
+      <c r="P14">
+        <v>0.01817106018145251</v>
+      </c>
+      <c r="Q14">
+        <v>0.117638046768</v>
+      </c>
+      <c r="R14">
+        <v>1.058742420912</v>
+      </c>
+      <c r="S14">
+        <v>5.710593444439602E-05</v>
+      </c>
+      <c r="T14">
+        <v>5.710593444439602E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.315656</v>
+      </c>
+      <c r="I15">
+        <v>0.00314268589031943</v>
+      </c>
+      <c r="J15">
+        <v>0.003142685890319429</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>59.24481466666666</v>
+      </c>
+      <c r="N15">
+        <v>177.734444</v>
+      </c>
+      <c r="O15">
+        <v>0.962887615892719</v>
+      </c>
+      <c r="P15">
+        <v>0.9628876158927191</v>
+      </c>
+      <c r="Q15">
+        <v>6.233660406140444</v>
+      </c>
+      <c r="R15">
+        <v>56.102943655264</v>
+      </c>
+      <c r="S15">
+        <v>0.003026053324429363</v>
+      </c>
+      <c r="T15">
+        <v>0.003026053324429363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.5101343333333334</v>
-      </c>
-      <c r="H10">
-        <v>1.530403</v>
-      </c>
-      <c r="I10">
-        <v>0.01907359990996641</v>
-      </c>
-      <c r="J10">
-        <v>0.0190735999099664</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.6602006666666668</v>
-      </c>
-      <c r="N10">
-        <v>1.980602</v>
-      </c>
-      <c r="O10">
-        <v>0.01082096921202439</v>
-      </c>
-      <c r="P10">
-        <v>0.01082096921202439</v>
-      </c>
-      <c r="Q10">
-        <v>0.3367910269562223</v>
-      </c>
-      <c r="R10">
-        <v>3.031119242606</v>
-      </c>
-      <c r="S10">
-        <v>0.0002063948373882176</v>
-      </c>
-      <c r="T10">
-        <v>0.0002063948373882175</v>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.315656</v>
+      </c>
+      <c r="I16">
+        <v>0.00314268589031943</v>
+      </c>
+      <c r="J16">
+        <v>0.003142685890319429</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.121724666666667</v>
+      </c>
+      <c r="N16">
+        <v>3.365174</v>
+      </c>
+      <c r="O16">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="P16">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="Q16">
+        <v>0.1180263737937778</v>
+      </c>
+      <c r="R16">
+        <v>1.062237364144</v>
+      </c>
+      <c r="S16">
+        <v>5.729444299487194E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.729444299487193E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.315656</v>
+      </c>
+      <c r="I17">
+        <v>0.00314268589031943</v>
+      </c>
+      <c r="J17">
+        <v>0.003142685890319429</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.131107</v>
+      </c>
+      <c r="O17">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="P17">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="Q17">
+        <v>0.004598301243555556</v>
+      </c>
+      <c r="R17">
+        <v>0.041384711192</v>
+      </c>
+      <c r="S17">
+        <v>2.232188450798881E-06</v>
+      </c>
+      <c r="T17">
+        <v>2.232188450798881E-06</v>
       </c>
     </row>
   </sheetData>
